--- a/Analysis Results/ML project.xlsx
+++ b/Analysis Results/ML project.xlsx
@@ -1,85 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>datsets\models</t>
-  </si>
-  <si>
-    <t>Linear regression</t>
-  </si>
-  <si>
-    <t>Polynomial regression</t>
-  </si>
-  <si>
-    <t>Ridge regression</t>
-  </si>
-  <si>
-    <t>Lasso regression</t>
-  </si>
-  <si>
-    <t>Piecewise Polynomial</t>
-  </si>
-  <si>
-    <t>Regression trees</t>
-  </si>
-  <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
-    <t>SVM regression</t>
-  </si>
-  <si>
-    <t>Bayesian regression</t>
-  </si>
-  <si>
-    <t>Neural network</t>
-  </si>
-  <si>
-    <t>Original dataset</t>
-  </si>
-  <si>
-    <t>Ratios and logartihms</t>
-  </si>
-  <si>
-    <t>Corelation analysis</t>
-  </si>
-  <si>
-    <t>PCA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t xml:space="preserve">datsets\models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linear regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polynomial regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ridge regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasso regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piecewise Polynomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SVM regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayesian regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratios and logartihms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corelation analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -90,76 +131,176 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF6AA84F"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFCC4125"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.71"/>
-    <col customWidth="1" min="2" max="2" width="16.71"/>
-    <col customWidth="1" min="3" max="3" width="21.0"/>
-    <col customWidth="1" min="4" max="4" width="16.29"/>
-    <col customWidth="1" min="5" max="5" width="16.57"/>
-    <col customWidth="1" min="6" max="6" width="20.43"/>
-    <col customWidth="1" min="7" max="7" width="17.71"/>
-    <col customWidth="1" min="9" max="9" width="14.57"/>
-    <col customWidth="1" min="10" max="11" width="18.71"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.1734693877551"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -193,10 +334,13 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -208,10 +352,11 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -223,10 +368,11 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -238,10 +384,11 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -253,8 +400,15 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Analysis Results/ML project.xlsx
+++ b/Analysis Results/ML project.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">datsets\models</t>
   </si>
@@ -61,10 +61,19 @@
     <t xml:space="preserve">Original dataset</t>
   </si>
   <si>
+    <t xml:space="preserve">continuous vars only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logarithms</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratios and logartihms</t>
   </si>
   <si>
-    <t xml:space="preserve">Corelation analysis</t>
+    <t xml:space="preserve">uncorrelated vars</t>
   </si>
   <si>
     <t xml:space="preserve">PCA</t>
@@ -115,7 +124,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,7 +140,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -144,6 +153,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -181,7 +202,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,6 +220,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,7 +245,7 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC33"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -260,7 +289,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF6AA84F"/>
       <rgbColor rgb="FF003300"/>
@@ -279,25 +308,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,17 +386,17 @@
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -402,6 +430,54 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
